--- a/Microsoft.xlsx
+++ b/Microsoft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/em/Downloads/pythonpractice/NEAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AFF30B-4C75-2248-9D91-5AD26A4ADC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6609041-1708-CF45-85D7-07A7B44D91F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft" sheetId="1" r:id="rId1"/>
@@ -77,6 +77,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -516,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -559,11 +563,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -591,6 +598,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -920,7 +928,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +951,7 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5982</v>
       </c>
     </row>
@@ -954,7 +962,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4689</v>
       </c>
     </row>
@@ -965,7 +973,7 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4643</v>
       </c>
     </row>
@@ -976,7 +984,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1885</v>
       </c>
     </row>
@@ -987,7 +995,7 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1429</v>
       </c>
     </row>
@@ -998,7 +1006,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1355</v>
       </c>
     </row>
@@ -1009,7 +1017,7 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1362</v>
       </c>
     </row>
@@ -1020,7 +1028,7 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1031,7 +1039,7 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>583</v>
       </c>
     </row>
@@ -1042,7 +1050,7 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>21928</v>
       </c>
     </row>
@@ -1053,7 +1061,7 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>6439</v>
       </c>
     </row>
@@ -1064,7 +1072,7 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>5332</v>
       </c>
     </row>
@@ -1075,7 +1083,7 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>4805</v>
       </c>
     </row>
@@ -1086,7 +1094,7 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>3617</v>
       </c>
     </row>
@@ -1097,7 +1105,7 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1605</v>
       </c>
     </row>
@@ -1108,7 +1116,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1371</v>
       </c>
     </row>
@@ -1119,7 +1127,7 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1697</v>
       </c>
     </row>
@@ -1130,7 +1138,7 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>228</v>
       </c>
     </row>
@@ -1141,7 +1149,7 @@
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>732</v>
       </c>
     </row>
@@ -1152,7 +1160,7 @@
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>25826</v>
       </c>
     </row>
@@ -1163,7 +1171,7 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>6234</v>
       </c>
     </row>
@@ -1174,7 +1182,7 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>5297</v>
       </c>
     </row>
@@ -1185,7 +1193,7 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>4253</v>
       </c>
     </row>
@@ -1196,7 +1204,7 @@
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1906</v>
       </c>
     </row>
@@ -1207,7 +1215,7 @@
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1599</v>
       </c>
     </row>
@@ -1218,7 +1226,7 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1383</v>
       </c>
     </row>
@@ -1229,7 +1237,7 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>958</v>
       </c>
     </row>
@@ -1240,7 +1248,7 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>976</v>
       </c>
     </row>
@@ -1251,7 +1259,7 @@
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>606</v>
       </c>
     </row>
@@ -1262,7 +1270,7 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>23212</v>
       </c>
     </row>
@@ -1273,7 +1281,7 @@
       <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>25573</v>
       </c>
     </row>
@@ -1284,7 +1292,7 @@
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>21649</v>
       </c>
     </row>
@@ -1295,7 +1303,7 @@
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>18593</v>
       </c>
     </row>
@@ -1306,7 +1314,7 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>9051</v>
       </c>
     </row>
@@ -1317,7 +1325,7 @@
       <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>6219</v>
       </c>
     </row>
@@ -1328,7 +1336,7 @@
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>5542</v>
       </c>
     </row>
@@ -1339,7 +1347,7 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>5062</v>
       </c>
     </row>
@@ -1350,7 +1358,7 @@
       <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>2271</v>
       </c>
     </row>
@@ -1361,7 +1369,7 @@
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>2611</v>
       </c>
     </row>
@@ -1372,7 +1380,7 @@
       <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>96571</v>
       </c>
     </row>

--- a/Microsoft.xlsx
+++ b/Microsoft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/em/Downloads/pythonpractice/NEAD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6609041-1708-CF45-85D7-07A7B44D91F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6EAEDD-2051-8C42-A941-B871E27D1454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
-  <si>
-    <t>Quarter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Segment</t>
   </si>
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>FY2017Q1</t>
   </si>
   <si>
     <t>Office products and cloud services</t>
@@ -61,16 +55,13 @@
     <t>Other</t>
   </si>
   <si>
-    <t>FY2017Q2</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>FY2017Q3</t>
+    <t>Fiscal Quarter</t>
   </si>
   <si>
-    <t>FY2017Q4</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Fiscal Year</t>
   </si>
 </sst>
 </file>
@@ -925,462 +916,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" s="1">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" s="1">
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>5982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D4" s="1">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>21928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D13" s="1">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>4689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D15" s="1">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1">
+        <v>25826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2017</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>4643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D26" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D27" s="1">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D28" s="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D29" s="1">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D30" s="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D31" s="1">
+        <v>23212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>25573</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>21928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D33" s="1">
+        <v>21649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>6439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
-        <v>5332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D35" s="1">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2017</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D36" s="1">
+        <v>6219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D37" s="1">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D38" s="1">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D39" s="1">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2017</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D40" s="1">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2017</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1">
-        <v>25826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="1">
-        <v>23212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>25573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1">
-        <v>21649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1">
-        <v>18593</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1">
-        <v>9051</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>96571</v>
       </c>
     </row>
